--- a/Assets/Gimicks/Tables/DT_Frag.xlsx
+++ b/Assets/Gimicks/Tables/DT_Frag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Gimicks\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25F3275-E48D-4BFB-A5BA-F75567054F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E07572-0C45-4BED-95CC-7B31C20B8DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
